--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_7.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>205260.7654986019</v>
+        <v>222828.7510725867</v>
       </c>
     </row>
     <row r="7">
@@ -26314,13 +26314,13 @@
         <v>37627.59193600625</v>
       </c>
       <c r="C2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="D2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="E2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600623</v>
       </c>
       <c r="F2" t="n">
         <v>37627.59193600624</v>
@@ -26332,7 +26332,7 @@
         <v>37627.59193600625</v>
       </c>
       <c r="I2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="J2" t="n">
         <v>37627.59193600624</v>
@@ -26341,19 +26341,19 @@
         <v>37627.59193600624</v>
       </c>
       <c r="L2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="M2" t="n">
         <v>37627.59193600624</v>
       </c>
       <c r="N2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="O2" t="n">
         <v>37627.59193600624</v>
       </c>
       <c r="P2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2099.754014286062</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2099.754014286062</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2099.754014286062</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2099.754014286062</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2099.754014286062</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2099.754014286062</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2099.754014286062</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2099.754014286062</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2099.754014286062</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2099.754014286062</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2099.754014286062</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2099.754014286062</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2099.754014286062</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2099.754014286062</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2099.754014286062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1900.237921720189</v>
+        <v>3999.991936006249</v>
       </c>
       <c r="C6" t="n">
-        <v>1900.237921720189</v>
+        <v>3999.991936006241</v>
       </c>
       <c r="D6" t="n">
-        <v>1900.237921720189</v>
+        <v>3999.991936006241</v>
       </c>
       <c r="E6" t="n">
-        <v>35527.83792172019</v>
+        <v>37627.59193600623</v>
       </c>
       <c r="F6" t="n">
-        <v>35527.83792172018</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="G6" t="n">
-        <v>35527.83792172018</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="H6" t="n">
-        <v>35527.83792172019</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="I6" t="n">
-        <v>35527.83792172019</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="J6" t="n">
-        <v>35527.83792172018</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="K6" t="n">
-        <v>35527.83792172018</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="L6" t="n">
-        <v>35527.83792172018</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="M6" t="n">
-        <v>35527.83792172018</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="N6" t="n">
-        <v>35527.83792172018</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="O6" t="n">
-        <v>35527.83792172018</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="P6" t="n">
-        <v>35527.83792172018</v>
+        <v>37627.59193600625</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="C2" t="n">
         <v>37627.59193600624</v>
       </c>
       <c r="D2" t="n">
+        <v>37627.59193600625</v>
+      </c>
+      <c r="E2" t="n">
         <v>37627.59193600624</v>
-      </c>
-      <c r="E2" t="n">
-        <v>37627.59193600623</v>
       </c>
       <c r="F2" t="n">
         <v>37627.59193600624</v>
       </c>
       <c r="G2" t="n">
+        <v>37627.59193600625</v>
+      </c>
+      <c r="H2" t="n">
         <v>37627.59193600624</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>37627.59193600625</v>
-      </c>
-      <c r="I2" t="n">
-        <v>37627.59193600624</v>
       </c>
       <c r="J2" t="n">
         <v>37627.59193600624</v>
       </c>
       <c r="K2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="L2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600623</v>
       </c>
       <c r="M2" t="n">
         <v>37627.59193600624</v>
       </c>
       <c r="N2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="O2" t="n">
         <v>37627.59193600624</v>
       </c>
       <c r="P2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
     </row>
     <row r="3">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3999.991936006249</v>
+        <v>3999.991936006241</v>
       </c>
       <c r="C6" t="n">
         <v>3999.991936006241</v>
       </c>
       <c r="D6" t="n">
-        <v>3999.991936006241</v>
+        <v>3999.991936006249</v>
       </c>
       <c r="E6" t="n">
-        <v>37627.59193600623</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="F6" t="n">
         <v>37627.59193600624</v>
       </c>
       <c r="G6" t="n">
+        <v>37627.59193600625</v>
+      </c>
+      <c r="H6" t="n">
         <v>37627.59193600624</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>37627.59193600625</v>
-      </c>
-      <c r="I6" t="n">
-        <v>37627.59193600624</v>
       </c>
       <c r="J6" t="n">
         <v>37627.59193600624</v>
       </c>
       <c r="K6" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="L6" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600623</v>
       </c>
       <c r="M6" t="n">
         <v>37627.59193600624</v>
       </c>
       <c r="N6" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="O6" t="n">
         <v>37627.59193600624</v>
       </c>
       <c r="P6" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>222828.7510725867</v>
+        <v>96570.63380411798</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5413711.842050619</v>
+        <v>5095395.866202923</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22726010.95505212</v>
+        <v>22414029.46712383</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3915832.239858635</v>
+        <v>4047313.663730309</v>
       </c>
     </row>
     <row r="11">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.73494176505562</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
     </row>
     <row r="18">
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.734941765055619</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.734941765055619</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.73494176505562</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.9883504387977624</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.73494176505562</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2335,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>12.35200489467393</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.361305680129117</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2876,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>23.55470292302859</v>
       </c>
     </row>
     <row r="31">
@@ -2994,16 +2994,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3113,16 +3113,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3228,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>19.72731862540289</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>2.361305680129117</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3350,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="38">
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.361305680129117</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3584,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>23.55470292302859</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3784,19 +3784,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>12.57565326968602</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3824,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>19.84491174912431</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3939,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>12.57565326968602</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,16 +4021,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4115,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>4.057652175311736</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>6.007688900340192</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>4.057652175311736</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>6.007688900340192</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>4.057652175311736</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>4.890972116798738</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>4.890972116798738</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2.901341747419639</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>2.901341747419639</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>6.880602486177838</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>4.890972116798738</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>4.890972116798738</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>4.890972116798738</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>4.890972116798738</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>4.890972116798738</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>4.890972116798738</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>4.890972116798738</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2.028826087655867</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>97.8833284203818</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>97.8833284203818</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>97.8833284203818</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>70.01461603622408</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>24.88271652639035</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>58.69875944192644</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>22.13378649092923</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>80.44100199269204</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>22.09498869872634</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>22.09498869872634</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>22.09498869872634</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>22.09498869872634</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>14.75230336596039</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>2.80375594835618</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
   </sheetData>
@@ -9166,16 +9166,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>222.0595851106659</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>237.7361490356726</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>232.315967292958</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>231.3032124475011</v>
       </c>
       <c r="O17" t="n">
         <v>230.0982114216867</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>139.8111730400443</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>140.5241138455595</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>144.1037679877036</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>133.2318609342435</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -9327,16 +9327,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>136.8544103469236</v>
       </c>
       <c r="M19" t="n">
-        <v>138.9257839476051</v>
+        <v>140.8955180132904</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>129.5756933161433</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>140.4262725175281</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>222.0595851106659</v>
       </c>
       <c r="L20" t="n">
         <v>235.7664149699872</v>
@@ -9412,13 +9412,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>231.3032124475011</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>232.067945487372</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>233.2027298209549</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9491,16 +9491,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>133.3114461490186</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>144.4863932953546</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>135.9441414800156</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>141.9515081517068</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9564,16 +9564,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>134.8846762812383</v>
+        <v>136.7748251321484</v>
       </c>
       <c r="M22" t="n">
-        <v>138.9257839476051</v>
+        <v>140.8955180132904</v>
       </c>
       <c r="N22" t="n">
-        <v>127.6855444652332</v>
+        <v>129.6552785309185</v>
       </c>
       <c r="O22" t="n">
-        <v>138.4565384518428</v>
+        <v>140.4262725175281</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -9640,13 +9640,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
@@ -9655,7 +9655,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9722,22 +9722,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9801,16 +9801,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N25" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O25" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
         <v>135.0065633140411</v>
@@ -9877,10 +9877,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L26" t="n">
-        <v>235.7664149699872</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M26" t="n">
         <v>230.3462332272727</v>
@@ -9889,10 +9889,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -10038,16 +10038,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N28" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O28" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10114,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M29" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O29" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10202,16 +10202,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10275,16 +10275,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N31" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O31" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
@@ -10351,13 +10351,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
@@ -10366,7 +10366,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10436,16 +10436,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10512,16 +10512,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N34" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O34" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L35" t="n">
         <v>235.7664149699872</v>
@@ -10597,13 +10597,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O35" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -10682,10 +10682,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10749,16 +10749,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N37" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O37" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
         <v>135.0065633140411</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L38" t="n">
         <v>235.7664149699872</v>
@@ -10834,13 +10834,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10913,16 +10913,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10986,16 +10986,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N40" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O40" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -11062,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
@@ -11077,7 +11077,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11150,16 +11150,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11223,16 +11223,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M43" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N43" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O43" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -11299,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M44" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -11393,7 +11393,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>158.5595353283699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11460,16 +11460,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>380.7641075977953</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23779,13 +23779,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>148.1341761760941</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>221.126115498446</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>384.2682045903683</v>
       </c>
     </row>
     <row r="18">
@@ -23822,7 +23822,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>143.3342706283283</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>98.18810008695783</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>169.7134370381525</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23876,7 +23876,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>203.8032511377922</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23937,10 +23937,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>175.3236573114842</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>222.0468639712869</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>284.5532642709057</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>223.9747136239815</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>8.255757449489185</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24022,16 +24022,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>221.126115498446</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>325.7825244044496</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>347.2712346517277</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24053,13 +24053,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>145.4753314989534</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>143.0994783276986</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>99.16948371384537</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>169.7134370381525</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24180,19 +24180,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>226.2106476632259</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>284.3492952908056</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>284.5532642709057</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>223.7399213233518</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24223,13 +24223,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>311.884776855451</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>137.5171130464757</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24262,7 +24262,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24341,13 +24341,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>201.6400878316884</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24381,7 +24381,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>139.7784131469302</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>190.9946280917787</v>
       </c>
     </row>
     <row r="26">
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,16 +24496,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>346.8796630372839</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24578,13 +24578,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>208.4992929001388</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24654,19 +24654,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>263.8702699959815</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24733,16 +24733,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>198.7945553148449</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24764,13 +24764,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>117.4791871330677</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>182.1279928542758</v>
       </c>
     </row>
     <row r="31">
@@ -24882,16 +24882,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>205.4968300677721</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24970,13 +24970,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>313.4416634353933</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25001,16 +25001,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>123.1437713153523</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>117.4791871330677</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>109.7534919028945</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25116,13 +25116,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>198.8573347266919</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>327.0930163603668</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>346.8796630372839</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25238,16 +25238,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>123.1437713153523</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>117.4791871330677</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>109.7534919028945</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25359,13 +25359,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>205.4968300677721</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>190.9946280917787</v>
       </c>
     </row>
     <row r="38">
@@ -25402,10 +25402,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>404.5147400615823</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25472,16 +25472,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>149.1537960652871</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>117.4791871330677</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25593,10 +25593,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25605,13 +25605,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>263.8702699959815</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>238.7699996381505</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25712,13 +25712,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>121.8247743700079</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>132.0247892607701</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>119.4489211987531</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>178.3449675368486</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>128.770561269088</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25827,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25848,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>260.9027071419601</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>200.0893641944063</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>402.727084245449</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26003,13 +26003,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>183.9532240455045</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26073,19 +26073,19 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>226.5173521291972</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>263.9566458523602</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>338648.3274240561</v>
+        <v>340406.0983281439</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>338648.3274240561</v>
+        <v>340406.0983281438</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>338648.3274240561</v>
+        <v>363199.3631437131</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>338648.3274240561</v>
+        <v>363199.3631437129</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>338648.3274240561</v>
+        <v>363199.3631437131</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>338648.3274240561</v>
+        <v>363199.3631437132</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>338648.3274240561</v>
+        <v>363199.363143713</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>338648.3274240561</v>
+        <v>363199.3631437132</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>338648.3274240561</v>
+        <v>361511.6180584213</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>338648.3274240561</v>
+        <v>361511.6180584212</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="C2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="D2" t="n">
         <v>37627.59193600625</v>
@@ -26328,34 +26328,34 @@
         <v>37627.59193600624</v>
       </c>
       <c r="G2" t="n">
-        <v>37627.59193600625</v>
+        <v>37822.8998142382</v>
       </c>
       <c r="H2" t="n">
-        <v>37627.59193600624</v>
+        <v>37822.8998142382</v>
       </c>
       <c r="I2" t="n">
-        <v>37627.59193600625</v>
+        <v>40355.48479374588</v>
       </c>
       <c r="J2" t="n">
-        <v>37627.59193600624</v>
+        <v>40355.48479374588</v>
       </c>
       <c r="K2" t="n">
-        <v>37627.59193600625</v>
+        <v>40355.48479374586</v>
       </c>
       <c r="L2" t="n">
-        <v>37627.59193600623</v>
+        <v>40355.48479374588</v>
       </c>
       <c r="M2" t="n">
-        <v>37627.59193600624</v>
+        <v>40355.48479374588</v>
       </c>
       <c r="N2" t="n">
-        <v>37627.59193600624</v>
+        <v>40355.48479374588</v>
       </c>
       <c r="O2" t="n">
-        <v>37627.59193600624</v>
+        <v>40167.95756204679</v>
       </c>
       <c r="P2" t="n">
-        <v>37627.59193600624</v>
+        <v>40167.95756204679</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6812.973454767425</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.708057879504569</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.708057879504569</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>23.85668684891895</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.85668684891895</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.85668684891895</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>23.85668684891895</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.85668684891895</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>23.85668684891895</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>22.21667432804714</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>22.21667432804714</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>119.7598311936668</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>119.7598311936668</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3999.991936006241</v>
+        <v>-11150.68203402852</v>
       </c>
       <c r="C6" t="n">
-        <v>3999.991936006241</v>
+        <v>-11150.68203402852</v>
       </c>
       <c r="D6" t="n">
-        <v>3999.991936006249</v>
+        <v>-11150.68203402852</v>
       </c>
       <c r="E6" t="n">
-        <v>37627.59193600624</v>
+        <v>22476.91796597148</v>
       </c>
       <c r="F6" t="n">
-        <v>37627.59193600624</v>
+        <v>22476.91796597148</v>
       </c>
       <c r="G6" t="n">
-        <v>37627.59193600625</v>
+        <v>22038.78451919862</v>
       </c>
       <c r="H6" t="n">
-        <v>37627.59193600624</v>
+        <v>22578.65908059197</v>
       </c>
       <c r="I6" t="n">
-        <v>37627.59193600625</v>
+        <v>17080.20612594463</v>
       </c>
       <c r="J6" t="n">
-        <v>37627.59193600624</v>
+        <v>23893.17958071206</v>
       </c>
       <c r="K6" t="n">
-        <v>37627.59193600625</v>
+        <v>23893.17958071204</v>
       </c>
       <c r="L6" t="n">
-        <v>37627.59193600623</v>
+        <v>23893.17958071206</v>
       </c>
       <c r="M6" t="n">
-        <v>37627.59193600624</v>
+        <v>23893.17958071207</v>
       </c>
       <c r="N6" t="n">
-        <v>37627.59193600624</v>
+        <v>23893.17958071207</v>
       </c>
       <c r="O6" t="n">
-        <v>37627.59193600624</v>
+        <v>23800.26258819908</v>
       </c>
       <c r="P6" t="n">
-        <v>37627.59193600624</v>
+        <v>23800.26258819907</v>
       </c>
     </row>
   </sheetData>
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
   </sheetData>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35886,16 +35886,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36132,13 +36132,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36521,16 +36521,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36758,16 +36758,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36995,16 +36995,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37232,16 +37232,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -37317,13 +37317,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37469,16 +37469,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37554,13 +37554,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,16 +37706,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37870,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37943,16 +37943,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38180,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96570.63380411798</v>
+        <v>210152.6556856603</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5095395.866202923</v>
+        <v>5413711.842050619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22414029.46712383</v>
+        <v>22726010.95505212</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4047313.663730309</v>
+        <v>3915832.239858635</v>
       </c>
     </row>
     <row r="11">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.73494176505562</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.734941765055619</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.734941765055619</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.73494176505562</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.9883504387977624</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.73494176505562</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2335,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>12.35200489467393</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.361305680129117</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2876,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2994,16 +2994,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>14.31059503474164</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3113,16 +3113,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3228,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.72731862540289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.361305680129117</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3350,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.361305680129117</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3584,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3784,19 +3784,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>12.57565326968602</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3824,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>19.84491174912431</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3939,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>12.57565326968602</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,16 +4021,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4115,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>2.10761545028328</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>4.057652175311736</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>6.007688900340192</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>7.878936262741234</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>7.878936262741234</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>7.878936262741234</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>7.878936262741234</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>6.126469833392123</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.126469833392123</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>4.136839464013024</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>4.136839464013024</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>4.136839464013024</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>4.136839464013024</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.136839464013024</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.147209094633924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.910045154603935</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.910045154603935</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.910045154603935</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1.910045154603935</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>2.10761545028328</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>4.057652175311736</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>6.007688900340192</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>7.878936262741234</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>7.878936262741234</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>7.878936262741234</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.878936262741234</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5.889305893362135</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>3.899675523983035</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>3.899675523983035</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>3.899675523983035</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>3.899675523983035</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>3.899675523983035</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1.910045154603935</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.910045154603935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>2.10761545028328</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>4.057652175311736</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.928899537712779</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>7.878936262741234</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>7.878936262741234</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.878936262741234</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.889305893362135</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3.899675523983035</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.899675523983035</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>3.899675523983035</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>3.899675523983035</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.910045154603935</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>2.10761545028328</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2.10761545028328</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2.10761545028328</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.978862812684323</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>5.928899537712779</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>7.878936262741234</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.126469833392123</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>6.126469833392123</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.126469833392123</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>4.136839464013024</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>4.136839464013024</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>2.147209094633924</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.890972116798738</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>4.890972116798738</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.901341747419639</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.901341747419639</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9117113780405386</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9117113780405386</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9117113780405386</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9117113780405386</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2.10761545028328</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3.978862812684323</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>5.928899537712779</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.878936262741234</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.880602486177838</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>4.890972116798738</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>4.890972116798738</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>4.890972116798738</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>4.890972116798738</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>4.890972116798738</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>4.890972116798738</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.890972116798738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>2.028826087655867</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>3.978862812684323</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>5.928899537712779</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>7.878936262741234</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>7.878936262741234</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.878936262741234</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.878936262741234</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>7.878936262741234</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>6.126469833392123</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>4.136839464013024</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4.136839464013024</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>2.147209094633924</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1575787252548247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>14.27719126790864</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>14.27719126790864</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>29.52132702853827</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>97.8833284203818</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.8833284203818</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>97.8833284203818</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>70.01461603622408</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>70.01461603622408</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>70.01461603622408</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>70.01461603622408</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>70.01461603622408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>28.41772601812563</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>28.41772601812563</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>57.94462678914073</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.88271652639035</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>24.88271652639035</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>24.88271652639035</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>24.88271652639035</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>24.88271652639035</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>24.88271652639035</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>29.52132702853827</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>56.83545203625125</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>84.14957704396423</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>80.62014129470579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>80.62014129470579</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>80.62014129470579</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>52.75142891054807</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>52.75142891054807</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>52.75142891054807</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>52.75142891054807</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.88271652639035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>14.27719126790864</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>14.27719126790864</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>14.27719126790864</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>29.52132702853827</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>100.2684856730375</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>100.2684856730375</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>100.2684856730375</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>72.39977328887976</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>44.53106090472204</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>44.53106090472204</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>29.52132702853827</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>56.83545203625125</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>54.62267627294912</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>29.52132702853827</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>56.83545203625125</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>84.14957704396423</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>80.62014129470579</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.94462678914073</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.94462678914073</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>29.52132702853827</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>56.83545203625125</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>56.83545203625125</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>85.81333917329844</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>57.94462678914073</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>57.94462678914073</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>58.69875944192644</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>58.69875944192644</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>30.83004705776872</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>30.83004705776872</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2.961334673611005</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.961334673611005</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2.961334673611005</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.961334673611005</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>29.52132702853827</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>58.69875944192644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>29.52132702853827</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>56.83545203625125</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>84.14957704396423</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.62014129470579</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>52.75142891054807</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.88271652639035</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>28.41772601812563</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>100.2684856730375</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>100.2684856730375</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>100.2684856730375</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>72.39977328887976</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>44.53106090472204</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>57.94462678914073</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>57.94462678914073</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>28.41772601812563</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>29.52132702853827</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>56.83545203625125</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>84.14957704396423</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>105.7399236434024</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>77.87121125924466</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.00249887508694</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>50.00249887508694</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>50.00249887508694</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>50.00249887508694</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>50.00249887508694</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>50.00249887508694</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>22.13378649092923</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>14.27719126790864</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>14.27719126790864</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>14.27719126790864</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>14.27719126790864</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>14.27719126790864</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>14.27719126790864</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>28.41772601812563</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>28.41772601812563</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>28.41772601812563</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>100.2684856730375</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>100.2684856730375</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.39977328887976</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>44.53106090472204</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>44.53106090472204</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>44.53106090472204</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>57.94462678914073</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>57.94462678914073</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>28.41772601812563</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>29.52132702853827</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>56.83545203625125</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>84.14957704396423</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.62014129470579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>80.62014129470579</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.94462678914073</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.94462678914073</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>57.94462678914073</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>44.53106090472204</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>44.53106090472204</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>44.53106090472204</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>44.53106090472204</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>42.14590365206637</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>14.27719126790864</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>14.27719126790864</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>14.27719126790864</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>28.41772601812563</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>28.41772601812563</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>28.41772601812563</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>100.2684856730375</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>100.2684856730375</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.39977328887976</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>44.53106090472204</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>44.53106090472204</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>44.53106090472204</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>44.53106090472204</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>44.53106090472204</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>44.53106090472204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>58.69875944192644</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>58.69875944192644</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>30.83004705776872</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>2.961334673611005</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.961334673611005</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>2.961334673611005</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.961334673611005</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>28.41772601812563</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>55.73185102583861</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>83.04597603355158</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.3601010412646</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>82.49138865710684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>29.52132702853827</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>56.83545203625125</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>84.14957704396423</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>108.4888536788635</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.62014129470579</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>52.75142891054807</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>52.75142891054807</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>52.75142891054807</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>30.07591440498301</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.207202020825291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>80.44100199269204</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>80.44100199269204</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>54.56191997791342</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>28.6828379631348</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>80.44100199269204</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>80.44100199269204</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>80.44100199269204</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>80.44100199269204</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>80.44100199269204</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>80.44100199269204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>22.09498869872634</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>22.09498869872634</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>78.14188814362404</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>99.73223474306219</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.85315272828358</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>73.85315272828358</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>73.85315272828358</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>73.85315272828358</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>73.85315272828358</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>73.85315272828358</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>47.97407071350496</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>22.09498869872634</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>22.09498869872634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>78.14188814362404</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9166,16 +9166,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>222.0595851106659</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>237.7361490356726</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>232.315967292958</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>231.3032124475011</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
         <v>230.0982114216867</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>139.8111730400443</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>140.5241138455595</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>144.1037679877036</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>133.2318609342435</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -9327,16 +9327,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>136.8544103469236</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M19" t="n">
-        <v>140.8955180132904</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N19" t="n">
-        <v>129.5756933161433</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O19" t="n">
-        <v>140.4262725175281</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>222.0595851106659</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
         <v>235.7664149699872</v>
@@ -9412,13 +9412,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>231.3032124475011</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>232.067945487372</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
-        <v>233.2027298209549</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9491,16 +9491,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>133.3114461490186</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>144.4863932953546</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>135.9441414800156</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>141.9515081517068</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9564,16 +9564,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>136.7748251321484</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M22" t="n">
-        <v>140.8955180132904</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
-        <v>129.6552785309185</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O22" t="n">
-        <v>140.4262725175281</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -9640,13 +9640,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>262.2416917349371</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
@@ -9655,7 +9655,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9722,22 +9722,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>165.029656544824</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9801,16 +9801,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>162.4747015415544</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M25" t="n">
-        <v>166.5158092079212</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N25" t="n">
-        <v>155.2755697255493</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
         <v>135.0065633140411</v>
@@ -9877,10 +9877,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>262.2416917349371</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
         <v>230.3462332272727</v>
@@ -9889,10 +9889,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>168.6093106869681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -10038,16 +10038,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>162.4747015415544</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M28" t="n">
-        <v>166.5158092079212</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N28" t="n">
-        <v>155.2755697255493</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10114,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
-        <v>255.8883403615407</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10202,16 +10202,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>169.0715212093943</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10275,16 +10275,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M31" t="n">
-        <v>166.5158092079212</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N31" t="n">
-        <v>155.2755697255493</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
@@ -10351,13 +10351,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>246.5651278099304</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
@@ -10366,7 +10366,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10436,16 +10436,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>168.6093106869681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10512,16 +10512,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M34" t="n">
-        <v>166.5158092079212</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N34" t="n">
-        <v>155.2755697255493</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>246.5651278099304</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
         <v>235.7664149699872</v>
@@ -10597,13 +10597,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>164.3167157393088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -10682,10 +10682,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10749,16 +10749,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>162.4747015415544</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M37" t="n">
-        <v>166.5158092079212</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N37" t="n">
-        <v>155.2755697255493</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O37" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
         <v>135.0065633140411</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>246.5651278099304</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
         <v>235.7664149699872</v>
@@ -10834,13 +10834,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10913,16 +10913,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>157.8169888482831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10986,16 +10986,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M40" t="n">
-        <v>166.5158092079212</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N40" t="n">
-        <v>155.2755697255493</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -11062,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>254.9313611413124</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
@@ -11077,7 +11077,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11150,16 +11150,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>155.926839997373</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11223,16 +11223,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M43" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N43" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O43" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -11299,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>253.9981915106306</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -11393,7 +11393,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>158.5595353283699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11460,16 +11460,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M46" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N46" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O46" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>380.7641075977953</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23779,13 +23779,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>148.1341761760941</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>221.126115498446</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>384.2682045903683</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23822,7 +23822,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>143.3342706283283</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>98.18810008695783</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>169.7134370381525</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23876,7 +23876,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>203.8032511377922</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23937,10 +23937,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>175.3236573114842</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>222.0468639712869</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>284.5532642709057</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>223.9747136239815</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>8.255757449489185</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24022,16 +24022,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>221.126115498446</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>325.7825244044496</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>347.2712346517277</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24053,13 +24053,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>145.4753314989534</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>143.0994783276986</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>99.16948371384537</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>169.7134370381525</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24180,19 +24180,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>226.2106476632259</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3492952908056</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>284.5532642709057</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>223.7399213233518</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>355.1438164031645</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24223,13 +24223,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>137.5171130464757</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24262,7 +24262,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>223.7556276475204</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24341,13 +24341,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>201.6400878316884</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24381,7 +24381,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>139.7784131469302</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24420,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>258.7290040961748</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>190.9946280917787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,16 +24496,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>223.7556276475204</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>346.8796630372839</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24578,13 +24578,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>198.3513568206587</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>208.4992929001388</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24654,19 +24654,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>263.8702699959815</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>198.119630128721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24733,16 +24733,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>198.7945553148449</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>223.7556276475204</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24764,13 +24764,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>119.8550403043226</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>182.1279928542758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24882,16 +24882,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>205.4968300677721</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24970,13 +24970,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>223.7556276475204</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>313.4416634353933</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25001,16 +25001,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>123.1437713153523</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25116,13 +25116,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>198.119630128721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>198.8573347266919</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>327.0930163603668</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>346.8796630372839</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25238,16 +25238,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>123.1437713153523</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25359,13 +25359,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>205.4968300677721</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>190.9946280917787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25402,10 +25402,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>404.5147400615823</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25472,16 +25472,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1537960652871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>130.0550551950848</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25593,10 +25593,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25605,13 +25605,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>263.8702699959815</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>389.6824463205042</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>238.7699996381505</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25712,13 +25712,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>121.8247743700079</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>132.0247892607701</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>119.4489211987531</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>178.3449675368486</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>128.770561269088</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25827,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25848,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>260.9027071419601</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>200.0893641944063</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>402.727084245449</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>124.2488267465189</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26003,13 +26003,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>207.1802959547944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>183.9532240455045</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26073,19 +26073,19 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>260.69873816186</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>226.5173521291972</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>263.9566458523602</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>340406.0983281439</v>
+        <v>338648.3274240561</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>340406.0983281438</v>
+        <v>338648.3274240561</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>363199.3631437131</v>
+        <v>338648.3274240561</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>363199.3631437129</v>
+        <v>338648.3274240561</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>363199.3631437131</v>
+        <v>338648.3274240561</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>363199.3631437132</v>
+        <v>338648.3274240561</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>363199.363143713</v>
+        <v>338648.3274240561</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>363199.3631437132</v>
+        <v>338648.3274240561</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>361511.6180584213</v>
+        <v>338648.3274240561</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>361511.6180584212</v>
+        <v>338648.3274240561</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="C2" t="n">
         <v>37627.59193600625</v>
       </c>
       <c r="D2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="E2" t="n">
         <v>37627.59193600624</v>
       </c>
       <c r="F2" t="n">
+        <v>37627.59193600625</v>
+      </c>
+      <c r="G2" t="n">
         <v>37627.59193600624</v>
       </c>
-      <c r="G2" t="n">
-        <v>37822.8998142382</v>
-      </c>
       <c r="H2" t="n">
-        <v>37822.8998142382</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="I2" t="n">
-        <v>40355.48479374588</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="J2" t="n">
-        <v>40355.48479374588</v>
+        <v>37627.59193600623</v>
       </c>
       <c r="K2" t="n">
-        <v>40355.48479374586</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="L2" t="n">
-        <v>40355.48479374588</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="M2" t="n">
-        <v>40355.48479374588</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="N2" t="n">
-        <v>40355.48479374588</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="O2" t="n">
-        <v>40167.95756204679</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="P2" t="n">
-        <v>40167.95756204679</v>
+        <v>37627.59193600624</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>539.8745613933579</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6812.973454767425</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.708057879504569</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.708057879504569</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>23.85668684891895</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.85668684891895</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>23.85668684891895</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>23.85668684891895</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.85668684891895</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>23.85668684891895</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>22.21667432804714</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>22.21667432804714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>119.7598311936668</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>119.7598311936668</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1677.473535827221</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1677.473535827221</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1677.473535827221</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1677.473535827221</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1677.473535827221</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1677.473535827221</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1557.713704633554</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1557.713704633554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11150.68203402852</v>
+        <v>2484.924539002765</v>
       </c>
       <c r="C6" t="n">
-        <v>-11150.68203402852</v>
+        <v>2484.924539002772</v>
       </c>
       <c r="D6" t="n">
-        <v>-11150.68203402852</v>
+        <v>2484.924539002765</v>
       </c>
       <c r="E6" t="n">
-        <v>22476.91796597148</v>
+        <v>36112.52453900276</v>
       </c>
       <c r="F6" t="n">
-        <v>22476.91796597148</v>
+        <v>36112.52453900277</v>
       </c>
       <c r="G6" t="n">
-        <v>22038.78451919862</v>
+        <v>36112.52453900276</v>
       </c>
       <c r="H6" t="n">
-        <v>22578.65908059197</v>
+        <v>36112.52453900277</v>
       </c>
       <c r="I6" t="n">
-        <v>17080.20612594463</v>
+        <v>36112.52453900277</v>
       </c>
       <c r="J6" t="n">
-        <v>23893.17958071206</v>
+        <v>36112.52453900276</v>
       </c>
       <c r="K6" t="n">
-        <v>23893.17958071204</v>
+        <v>36112.52453900277</v>
       </c>
       <c r="L6" t="n">
-        <v>23893.17958071206</v>
+        <v>36112.52453900276</v>
       </c>
       <c r="M6" t="n">
-        <v>23893.17958071207</v>
+        <v>36112.52453900276</v>
       </c>
       <c r="N6" t="n">
-        <v>23893.17958071207</v>
+        <v>36112.52453900276</v>
       </c>
       <c r="O6" t="n">
-        <v>23800.26258819908</v>
+        <v>36112.52453900277</v>
       </c>
       <c r="P6" t="n">
-        <v>23800.26258819907</v>
+        <v>36112.52453900276</v>
       </c>
     </row>
   </sheetData>
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35886,16 +35886,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.890148850910144</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.890148850910144</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.890148850910144</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36132,13 +36132,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.890148850910144</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36211,16 +36211,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.890148850910144</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.890148850910144</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.969734065685309</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36521,16 +36521,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36758,16 +36758,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36995,16 +36995,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37232,16 +37232,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -37317,13 +37317,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37469,16 +37469,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37554,13 +37554,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,16 +37706,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37870,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37943,16 +37943,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38180,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
